--- a/file/TGE-422-HualienBandB.xlsx
+++ b/file/TGE-422-HualienBandB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CE294-7154-6E46-850D-F987756BFA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23BB438-6552-6643-A22D-EC87E5206919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="5500" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="25740" yWindow="5940" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,15 +645,16 @@
   </si>
   <si>
     <t>鳳林鎮</t>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0_);\(&quot;NT$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -724,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1057,16 +1058,16 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="62.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="62.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,22 +1084,25 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1114,20 +1118,26 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4800</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,20 +1153,23 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6">
+        <v>3900</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1172,21 +1185,23 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6">
+        <v>5940</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,21 +1217,23 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16">
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1232,21 +1249,20 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,21 +1278,23 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6">
+        <v>5700</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1292,21 +1310,20 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16">
+    <row r="9" spans="1:11" ht="16">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,21 +1339,23 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6">
+        <v>2800</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1352,21 +1371,23 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6">
+        <v>3200</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16">
+    <row r="11" spans="1:11" ht="16">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -1382,20 +1403,23 @@
       <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="6">
+        <v>2800</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16">
+    <row r="12" spans="1:11" ht="16">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1411,20 +1435,23 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6">
+        <v>3580</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16">
+    <row r="13" spans="1:11" ht="16">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1440,20 +1467,23 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="6">
+        <v>3900</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16">
+    <row r="14" spans="1:11" ht="16">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1469,20 +1499,23 @@
       <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6">
+        <v>2600</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16">
+    <row r="15" spans="1:11" ht="16">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1498,20 +1531,20 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16">
+    <row r="16" spans="1:11" ht="16">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1527,20 +1560,23 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6">
+        <v>2880</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16">
+    <row r="17" spans="1:11" ht="16">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1556,20 +1592,23 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6">
+        <v>2900</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16">
+    <row r="18" spans="1:11" ht="16">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1585,20 +1624,23 @@
       <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="6">
+        <v>3800</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16">
+    <row r="19" spans="1:11" ht="16">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1614,20 +1656,23 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="6">
+        <v>5400</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16">
+    <row r="20" spans="1:11" ht="16">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1643,20 +1688,23 @@
       <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="6">
+        <v>1680</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16">
+    <row r="21" spans="1:11" ht="16">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1672,20 +1720,23 @@
       <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="6">
+        <v>2900</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16">
+    <row r="22" spans="1:11" ht="16">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1701,20 +1752,23 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="6">
+        <v>3080</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16">
+    <row r="23" spans="1:11" ht="16">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1730,20 +1784,23 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="6">
+        <v>6900</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16">
+    <row r="24" spans="1:11" ht="16">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1759,20 +1816,23 @@
       <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="6">
+        <v>5800</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16">
+    <row r="25" spans="1:11" ht="16">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1788,20 +1848,23 @@
       <c r="E25" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="6">
+        <v>3800</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16">
+    <row r="26" spans="1:11" ht="16">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -1817,23 +1880,26 @@
       <c r="E26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="6">
+        <v>6800</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{A8144296-877C-534F-ABB1-75EF4972AE47}"/>
+    <hyperlink ref="K18" r:id="rId1" xr:uid="{A8144296-877C-534F-ABB1-75EF4972AE47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
